--- a/src/main/resources/template/factoryProduction/factoryProductionTemplate.xlsx
+++ b/src/main/resources/template/factoryProduction/factoryProductionTemplate.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="66">
   <si>
     <t>品牌:</t>
   </si>
@@ -211,6 +211,22 @@
   </si>
   <si>
     <t>裤脚</t>
+  </si>
+  <si>
+    <t>XS</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>4XL</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>5XL</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>6XL</t>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -560,7 +576,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="109">
+  <cellXfs count="116">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -624,68 +640,206 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
@@ -696,187 +850,70 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="58" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="58" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1211,10 +1248,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:IM55"/>
+  <dimension ref="A1:IQ55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O2" sqref="O2"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="S34" sqref="S34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1222,685 +1259,837 @@
     <col min="5" max="5" width="7.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
-      <c r="A1" s="49"/>
-      <c r="B1" s="50"/>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
-      <c r="F1" s="50"/>
-      <c r="G1" s="50"/>
-      <c r="H1" s="50"/>
-      <c r="I1" s="50"/>
-      <c r="J1" s="50"/>
-      <c r="K1" s="50"/>
-      <c r="L1" s="50"/>
-      <c r="M1" s="50"/>
-      <c r="N1" s="50"/>
-    </row>
-    <row r="2" spans="1:14">
-      <c r="A2" s="51"/>
-      <c r="B2" s="52"/>
-      <c r="C2" s="52"/>
-      <c r="D2" s="52"/>
-      <c r="E2" s="52"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
-      <c r="H2" s="52"/>
-      <c r="I2" s="53"/>
-      <c r="J2" s="53"/>
-      <c r="K2" s="53"/>
-      <c r="L2" s="52"/>
-      <c r="M2" s="52"/>
-      <c r="N2" s="52"/>
-    </row>
-    <row r="3" spans="1:14" ht="15.6">
+    <row r="1" spans="1:18">
+      <c r="A1" s="31"/>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
+      <c r="I1" s="32"/>
+      <c r="J1" s="32"/>
+      <c r="K1" s="32"/>
+      <c r="L1" s="32"/>
+      <c r="M1" s="32"/>
+      <c r="N1" s="32"/>
+      <c r="O1" s="32"/>
+      <c r="P1" s="32"/>
+      <c r="Q1" s="32"/>
+      <c r="R1" s="32"/>
+    </row>
+    <row r="2" spans="1:18">
+      <c r="A2" s="33"/>
+      <c r="B2" s="34"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="34"/>
+      <c r="I2" s="35"/>
+      <c r="J2" s="35"/>
+      <c r="K2" s="35"/>
+      <c r="L2" s="35"/>
+      <c r="M2" s="35"/>
+      <c r="N2" s="35"/>
+      <c r="O2" s="35"/>
+      <c r="P2" s="34"/>
+      <c r="Q2" s="34"/>
+      <c r="R2" s="34"/>
+    </row>
+    <row r="3" spans="1:18" ht="15.6">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="106"/>
-      <c r="C3" s="106"/>
-      <c r="D3" s="48" t="s">
+      <c r="B3" s="113"/>
+      <c r="C3" s="113"/>
+      <c r="D3" s="108" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="48"/>
-      <c r="F3" s="48"/>
-      <c r="G3" s="107"/>
-      <c r="H3" s="89"/>
-      <c r="I3" s="67"/>
-      <c r="J3" s="68"/>
-      <c r="K3" s="69"/>
-      <c r="L3" s="31" t="s">
+      <c r="E3" s="108"/>
+      <c r="F3" s="108"/>
+      <c r="G3" s="114"/>
+      <c r="H3" s="95"/>
+      <c r="I3" s="49"/>
+      <c r="J3" s="50"/>
+      <c r="K3" s="51"/>
+      <c r="L3" s="21"/>
+      <c r="M3" s="21"/>
+      <c r="N3" s="21"/>
+      <c r="O3" s="21"/>
+      <c r="P3" s="58" t="s">
         <v>2</v>
       </c>
-      <c r="M3" s="31"/>
-      <c r="N3" s="31"/>
-    </row>
-    <row r="4" spans="1:14" ht="15.6">
+      <c r="Q3" s="58"/>
+      <c r="R3" s="58"/>
+    </row>
+    <row r="4" spans="1:18" ht="15.6">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="108"/>
-      <c r="C4" s="106"/>
-      <c r="D4" s="48" t="s">
+      <c r="B4" s="115"/>
+      <c r="C4" s="113"/>
+      <c r="D4" s="108" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="48"/>
-      <c r="F4" s="48"/>
-      <c r="G4" s="107"/>
-      <c r="H4" s="89"/>
-      <c r="I4" s="70"/>
-      <c r="J4" s="71"/>
-      <c r="K4" s="72"/>
-      <c r="L4" s="31"/>
-      <c r="M4" s="31"/>
-      <c r="N4" s="31"/>
-    </row>
-    <row r="5" spans="1:14" ht="15.6">
+      <c r="E4" s="108"/>
+      <c r="F4" s="108"/>
+      <c r="G4" s="114"/>
+      <c r="H4" s="95"/>
+      <c r="I4" s="52"/>
+      <c r="J4" s="53"/>
+      <c r="K4" s="54"/>
+      <c r="L4" s="22"/>
+      <c r="M4" s="22"/>
+      <c r="N4" s="22"/>
+      <c r="O4" s="22"/>
+      <c r="P4" s="58"/>
+      <c r="Q4" s="58"/>
+      <c r="R4" s="58"/>
+    </row>
+    <row r="5" spans="1:18" ht="15.6">
       <c r="A5" s="1"/>
-      <c r="B5" s="94"/>
-      <c r="C5" s="95"/>
-      <c r="D5" s="96"/>
-      <c r="E5" s="97"/>
-      <c r="F5" s="98"/>
-      <c r="G5" s="99"/>
-      <c r="H5" s="100"/>
-      <c r="I5" s="73"/>
-      <c r="J5" s="74"/>
-      <c r="K5" s="75"/>
-      <c r="L5" s="31"/>
-      <c r="M5" s="31"/>
-      <c r="N5" s="31"/>
-    </row>
-    <row r="6" spans="1:14" ht="15.6">
-      <c r="A6" s="48"/>
-      <c r="B6" s="48"/>
-      <c r="C6" s="48"/>
-      <c r="D6" s="48"/>
-      <c r="E6" s="48"/>
-      <c r="F6" s="48"/>
-      <c r="G6" s="48"/>
-      <c r="H6" s="48"/>
-      <c r="I6" s="48"/>
-      <c r="J6" s="48"/>
-      <c r="K6" s="48"/>
-      <c r="L6" s="48"/>
-      <c r="M6" s="48"/>
-      <c r="N6" s="48"/>
-    </row>
-    <row r="7" spans="1:14" ht="15.6">
-      <c r="A7" s="28" t="s">
+      <c r="B5" s="101"/>
+      <c r="C5" s="102"/>
+      <c r="D5" s="103"/>
+      <c r="E5" s="104"/>
+      <c r="F5" s="105"/>
+      <c r="G5" s="106"/>
+      <c r="H5" s="107"/>
+      <c r="I5" s="55"/>
+      <c r="J5" s="56"/>
+      <c r="K5" s="57"/>
+      <c r="L5" s="23"/>
+      <c r="M5" s="23"/>
+      <c r="N5" s="23"/>
+      <c r="O5" s="23"/>
+      <c r="P5" s="58"/>
+      <c r="Q5" s="58"/>
+      <c r="R5" s="58"/>
+    </row>
+    <row r="6" spans="1:18" ht="15.6">
+      <c r="A6" s="108"/>
+      <c r="B6" s="108"/>
+      <c r="C6" s="108"/>
+      <c r="D6" s="108"/>
+      <c r="E6" s="108"/>
+      <c r="F6" s="108"/>
+      <c r="G6" s="108"/>
+      <c r="H6" s="108"/>
+      <c r="I6" s="108"/>
+      <c r="J6" s="108"/>
+      <c r="K6" s="108"/>
+      <c r="L6" s="108"/>
+      <c r="M6" s="108"/>
+      <c r="N6" s="108"/>
+      <c r="O6" s="108"/>
+      <c r="P6" s="108"/>
+      <c r="Q6" s="108"/>
+      <c r="R6" s="108"/>
+    </row>
+    <row r="7" spans="1:18" ht="15.6">
+      <c r="A7" s="70" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="30" t="s">
+      <c r="B7" s="75" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="30"/>
-      <c r="D7" s="101" t="s">
+      <c r="C7" s="75"/>
+      <c r="D7" s="109" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="102"/>
-      <c r="F7" s="103" t="s">
+      <c r="E7" s="110"/>
+      <c r="F7" s="111" t="s">
         <v>48</v>
       </c>
-      <c r="G7" s="104"/>
-      <c r="H7" s="104"/>
-      <c r="I7" s="104"/>
-      <c r="J7" s="104"/>
-      <c r="K7" s="105"/>
-      <c r="L7" s="54"/>
-      <c r="M7" s="55"/>
-      <c r="N7" s="56"/>
-    </row>
-    <row r="8" spans="1:14" ht="15.6">
-      <c r="A8" s="28"/>
+      <c r="G7" s="112"/>
+      <c r="H7" s="112"/>
+      <c r="I7" s="112"/>
+      <c r="J7" s="112"/>
+      <c r="K7" s="112"/>
+      <c r="L7" s="28"/>
+      <c r="M7" s="28"/>
+      <c r="N7" s="28"/>
+      <c r="O7" s="28"/>
+      <c r="P7" s="36"/>
+      <c r="Q7" s="37"/>
+      <c r="R7" s="38"/>
+    </row>
+    <row r="8" spans="1:18" ht="15.6">
+      <c r="A8" s="70"/>
       <c r="B8" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="47" t="s">
+      <c r="D8" s="100" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="47"/>
+      <c r="E8" s="100"/>
       <c r="F8" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="G8" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G8" s="3" t="s">
+      <c r="H8" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H8" s="3" t="s">
+      <c r="I8" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I8" s="3" t="s">
+      <c r="J8" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="J8" s="3" t="s">
+      <c r="K8" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="K8" s="3" t="s">
+      <c r="L8" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="L8" s="57"/>
-      <c r="M8" s="58"/>
-      <c r="N8" s="59"/>
-    </row>
-    <row r="9" spans="1:14" ht="15.6">
-      <c r="A9" s="28"/>
-      <c r="B9" s="76"/>
+      <c r="M8" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="N8" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="O8" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="P8" s="39"/>
+      <c r="Q8" s="40"/>
+      <c r="R8" s="41"/>
+    </row>
+    <row r="9" spans="1:18" ht="15.6">
+      <c r="A9" s="70"/>
+      <c r="B9" s="72"/>
       <c r="C9" s="4"/>
-      <c r="D9" s="90"/>
-      <c r="E9" s="91"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="2"/>
-      <c r="K9" s="2"/>
-      <c r="L9" s="57"/>
-      <c r="M9" s="58"/>
-      <c r="N9" s="59"/>
-    </row>
-    <row r="10" spans="1:14" ht="15.6">
-      <c r="A10" s="28"/>
-      <c r="B10" s="76"/>
+      <c r="D9" s="96"/>
+      <c r="E9" s="97"/>
+      <c r="F9" s="24"/>
+      <c r="G9" s="24"/>
+      <c r="H9" s="24"/>
+      <c r="I9" s="24"/>
+      <c r="J9" s="25"/>
+      <c r="K9" s="25"/>
+      <c r="L9" s="25"/>
+      <c r="M9" s="25"/>
+      <c r="N9" s="25"/>
+      <c r="O9" s="25"/>
+      <c r="P9" s="39"/>
+      <c r="Q9" s="40"/>
+      <c r="R9" s="41"/>
+    </row>
+    <row r="10" spans="1:18" ht="15.6">
+      <c r="A10" s="70"/>
+      <c r="B10" s="72"/>
       <c r="C10" s="4"/>
-      <c r="D10" s="90"/>
-      <c r="E10" s="91"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="2"/>
-      <c r="K10" s="2"/>
-      <c r="L10" s="57"/>
-      <c r="M10" s="58"/>
-      <c r="N10" s="59"/>
-    </row>
-    <row r="11" spans="1:14" ht="15.6">
-      <c r="A11" s="28"/>
-      <c r="B11" s="76"/>
+      <c r="D10" s="96"/>
+      <c r="E10" s="97"/>
+      <c r="F10" s="24"/>
+      <c r="G10" s="24"/>
+      <c r="H10" s="24"/>
+      <c r="I10" s="24"/>
+      <c r="J10" s="25"/>
+      <c r="K10" s="25"/>
+      <c r="L10" s="25"/>
+      <c r="M10" s="25"/>
+      <c r="N10" s="25"/>
+      <c r="O10" s="25"/>
+      <c r="P10" s="39"/>
+      <c r="Q10" s="40"/>
+      <c r="R10" s="41"/>
+    </row>
+    <row r="11" spans="1:18" ht="15.6">
+      <c r="A11" s="70"/>
+      <c r="B11" s="72"/>
       <c r="C11" s="4"/>
-      <c r="D11" s="90"/>
-      <c r="E11" s="91"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
-      <c r="J11" s="2"/>
-      <c r="K11" s="2"/>
-      <c r="L11" s="57"/>
-      <c r="M11" s="58"/>
-      <c r="N11" s="59"/>
-    </row>
-    <row r="12" spans="1:14" ht="15.6">
-      <c r="A12" s="28"/>
-      <c r="B12" s="76"/>
+      <c r="D11" s="96"/>
+      <c r="E11" s="97"/>
+      <c r="F11" s="24"/>
+      <c r="G11" s="24"/>
+      <c r="H11" s="24"/>
+      <c r="I11" s="24"/>
+      <c r="J11" s="25"/>
+      <c r="K11" s="25"/>
+      <c r="L11" s="25"/>
+      <c r="M11" s="25"/>
+      <c r="N11" s="25"/>
+      <c r="O11" s="25"/>
+      <c r="P11" s="39"/>
+      <c r="Q11" s="40"/>
+      <c r="R11" s="41"/>
+    </row>
+    <row r="12" spans="1:18" ht="15.6">
+      <c r="A12" s="70"/>
+      <c r="B12" s="72"/>
       <c r="C12" s="5"/>
-      <c r="D12" s="90"/>
-      <c r="E12" s="91"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
-      <c r="J12" s="2"/>
-      <c r="K12" s="2"/>
-      <c r="L12" s="57"/>
-      <c r="M12" s="58"/>
-      <c r="N12" s="59"/>
-    </row>
-    <row r="13" spans="1:14" ht="15.6">
-      <c r="A13" s="28"/>
-      <c r="B13" s="76"/>
+      <c r="D12" s="96"/>
+      <c r="E12" s="97"/>
+      <c r="F12" s="24"/>
+      <c r="G12" s="24"/>
+      <c r="H12" s="24"/>
+      <c r="I12" s="24"/>
+      <c r="J12" s="25"/>
+      <c r="K12" s="25"/>
+      <c r="L12" s="25"/>
+      <c r="M12" s="25"/>
+      <c r="N12" s="25"/>
+      <c r="O12" s="25"/>
+      <c r="P12" s="39"/>
+      <c r="Q12" s="40"/>
+      <c r="R12" s="41"/>
+    </row>
+    <row r="13" spans="1:18" ht="15.6">
+      <c r="A13" s="70"/>
+      <c r="B13" s="72"/>
       <c r="C13" s="2"/>
-      <c r="D13" s="90"/>
-      <c r="E13" s="91"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
-      <c r="J13" s="2"/>
-      <c r="K13" s="2"/>
-      <c r="L13" s="57"/>
-      <c r="M13" s="58"/>
-      <c r="N13" s="59"/>
-    </row>
-    <row r="14" spans="1:14" ht="15.6">
-      <c r="A14" s="28"/>
-      <c r="B14" s="76"/>
+      <c r="D13" s="96"/>
+      <c r="E13" s="97"/>
+      <c r="F13" s="24"/>
+      <c r="G13" s="24"/>
+      <c r="H13" s="24"/>
+      <c r="I13" s="24"/>
+      <c r="J13" s="25"/>
+      <c r="K13" s="25"/>
+      <c r="L13" s="25"/>
+      <c r="M13" s="25"/>
+      <c r="N13" s="25"/>
+      <c r="O13" s="25"/>
+      <c r="P13" s="39"/>
+      <c r="Q13" s="40"/>
+      <c r="R13" s="41"/>
+    </row>
+    <row r="14" spans="1:18" ht="15.6">
+      <c r="A14" s="70"/>
+      <c r="B14" s="72"/>
       <c r="C14" s="5"/>
-      <c r="D14" s="90"/>
-      <c r="E14" s="91"/>
+      <c r="D14" s="96"/>
+      <c r="E14" s="97"/>
       <c r="F14" s="5"/>
       <c r="G14" s="5"/>
       <c r="H14" s="5"/>
       <c r="I14" s="5"/>
-      <c r="J14" s="2"/>
-      <c r="K14" s="2"/>
-      <c r="L14" s="57"/>
-      <c r="M14" s="58"/>
-      <c r="N14" s="59"/>
-    </row>
-    <row r="15" spans="1:14" ht="15.6">
-      <c r="A15" s="28"/>
-      <c r="B15" s="76"/>
+      <c r="J14" s="25"/>
+      <c r="K14" s="25"/>
+      <c r="L14" s="25"/>
+      <c r="M14" s="25"/>
+      <c r="N14" s="25"/>
+      <c r="O14" s="25"/>
+      <c r="P14" s="39"/>
+      <c r="Q14" s="40"/>
+      <c r="R14" s="41"/>
+    </row>
+    <row r="15" spans="1:18" ht="15.6">
+      <c r="A15" s="70"/>
+      <c r="B15" s="72"/>
       <c r="C15" s="4"/>
-      <c r="D15" s="90"/>
-      <c r="E15" s="91"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
-      <c r="I15" s="2"/>
-      <c r="J15" s="2"/>
-      <c r="K15" s="2"/>
-      <c r="L15" s="57"/>
-      <c r="M15" s="58"/>
-      <c r="N15" s="59"/>
-    </row>
-    <row r="16" spans="1:14" ht="15.6">
-      <c r="A16" s="28"/>
-      <c r="B16" s="76"/>
+      <c r="D15" s="96"/>
+      <c r="E15" s="97"/>
+      <c r="F15" s="24"/>
+      <c r="G15" s="24"/>
+      <c r="H15" s="24"/>
+      <c r="I15" s="25"/>
+      <c r="J15" s="25"/>
+      <c r="K15" s="25"/>
+      <c r="L15" s="25"/>
+      <c r="M15" s="25"/>
+      <c r="N15" s="25"/>
+      <c r="O15" s="25"/>
+      <c r="P15" s="39"/>
+      <c r="Q15" s="40"/>
+      <c r="R15" s="41"/>
+    </row>
+    <row r="16" spans="1:18" ht="15.6">
+      <c r="A16" s="70"/>
+      <c r="B16" s="72"/>
       <c r="C16" s="4"/>
-      <c r="D16" s="90"/>
-      <c r="E16" s="91"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="4"/>
-      <c r="I16" s="2"/>
-      <c r="J16" s="2"/>
-      <c r="K16" s="2"/>
-      <c r="L16" s="57"/>
-      <c r="M16" s="58"/>
-      <c r="N16" s="59"/>
-    </row>
-    <row r="17" spans="1:14" ht="15.6">
-      <c r="A17" s="28"/>
-      <c r="B17" s="76"/>
+      <c r="D16" s="96"/>
+      <c r="E16" s="97"/>
+      <c r="F16" s="24"/>
+      <c r="G16" s="24"/>
+      <c r="H16" s="24"/>
+      <c r="I16" s="25"/>
+      <c r="J16" s="25"/>
+      <c r="K16" s="25"/>
+      <c r="L16" s="25"/>
+      <c r="M16" s="25"/>
+      <c r="N16" s="25"/>
+      <c r="O16" s="25"/>
+      <c r="P16" s="39"/>
+      <c r="Q16" s="40"/>
+      <c r="R16" s="41"/>
+    </row>
+    <row r="17" spans="1:18" ht="15.6">
+      <c r="A17" s="70"/>
+      <c r="B17" s="72"/>
       <c r="C17" s="4"/>
-      <c r="D17" s="92"/>
-      <c r="E17" s="93"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
-      <c r="I17" s="2"/>
-      <c r="J17" s="2"/>
-      <c r="K17" s="2"/>
-      <c r="L17" s="57"/>
-      <c r="M17" s="58"/>
-      <c r="N17" s="59"/>
-    </row>
-    <row r="18" spans="1:14" ht="15.6">
-      <c r="A18" s="28"/>
-      <c r="B18" s="76"/>
+      <c r="D17" s="98"/>
+      <c r="E17" s="99"/>
+      <c r="F17" s="24"/>
+      <c r="G17" s="24"/>
+      <c r="H17" s="24"/>
+      <c r="I17" s="25"/>
+      <c r="J17" s="25"/>
+      <c r="K17" s="25"/>
+      <c r="L17" s="25"/>
+      <c r="M17" s="25"/>
+      <c r="N17" s="25"/>
+      <c r="O17" s="25"/>
+      <c r="P17" s="39"/>
+      <c r="Q17" s="40"/>
+      <c r="R17" s="41"/>
+    </row>
+    <row r="18" spans="1:18" ht="15.6">
+      <c r="A18" s="70"/>
+      <c r="B18" s="72"/>
       <c r="C18" s="4"/>
-      <c r="D18" s="87"/>
-      <c r="E18" s="87"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="4"/>
-      <c r="I18" s="4"/>
-      <c r="J18" s="2"/>
-      <c r="K18" s="2"/>
-      <c r="L18" s="57"/>
-      <c r="M18" s="58"/>
-      <c r="N18" s="59"/>
-    </row>
-    <row r="19" spans="1:14" ht="15.6">
-      <c r="A19" s="28"/>
-      <c r="B19" s="76"/>
+      <c r="D18" s="93"/>
+      <c r="E18" s="93"/>
+      <c r="F18" s="24"/>
+      <c r="G18" s="24"/>
+      <c r="H18" s="24"/>
+      <c r="I18" s="24"/>
+      <c r="J18" s="25"/>
+      <c r="K18" s="25"/>
+      <c r="L18" s="25"/>
+      <c r="M18" s="25"/>
+      <c r="N18" s="25"/>
+      <c r="O18" s="25"/>
+      <c r="P18" s="39"/>
+      <c r="Q18" s="40"/>
+      <c r="R18" s="41"/>
+    </row>
+    <row r="19" spans="1:18" ht="15.6">
+      <c r="A19" s="70"/>
+      <c r="B19" s="72"/>
       <c r="C19" s="4"/>
-      <c r="D19" s="87"/>
-      <c r="E19" s="87"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="4"/>
-      <c r="I19" s="4"/>
-      <c r="J19" s="4"/>
-      <c r="K19" s="4"/>
-      <c r="L19" s="57"/>
-      <c r="M19" s="58"/>
-      <c r="N19" s="59"/>
-    </row>
-    <row r="20" spans="1:14" ht="15.6">
-      <c r="A20" s="28"/>
-      <c r="B20" s="76"/>
+      <c r="D19" s="93"/>
+      <c r="E19" s="93"/>
+      <c r="F19" s="24"/>
+      <c r="G19" s="24"/>
+      <c r="H19" s="24"/>
+      <c r="I19" s="24"/>
+      <c r="J19" s="24"/>
+      <c r="K19" s="24"/>
+      <c r="L19" s="24"/>
+      <c r="M19" s="24"/>
+      <c r="N19" s="24"/>
+      <c r="O19" s="24"/>
+      <c r="P19" s="39"/>
+      <c r="Q19" s="40"/>
+      <c r="R19" s="41"/>
+    </row>
+    <row r="20" spans="1:18" ht="15.6">
+      <c r="A20" s="70"/>
+      <c r="B20" s="72"/>
       <c r="C20" s="4"/>
-      <c r="D20" s="88"/>
-      <c r="E20" s="88"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="4"/>
-      <c r="I20" s="4"/>
-      <c r="J20" s="4"/>
-      <c r="K20" s="2"/>
-      <c r="L20" s="60"/>
-      <c r="M20" s="61"/>
-      <c r="N20" s="62"/>
-    </row>
-    <row r="21" spans="1:14" ht="15.6">
-      <c r="A21" s="28"/>
-      <c r="B21" s="76"/>
+      <c r="D20" s="94"/>
+      <c r="E20" s="94"/>
+      <c r="F20" s="24"/>
+      <c r="G20" s="24"/>
+      <c r="H20" s="24"/>
+      <c r="I20" s="24"/>
+      <c r="J20" s="24"/>
+      <c r="K20" s="25"/>
+      <c r="L20" s="25"/>
+      <c r="M20" s="25"/>
+      <c r="N20" s="25"/>
+      <c r="O20" s="25"/>
+      <c r="P20" s="42"/>
+      <c r="Q20" s="43"/>
+      <c r="R20" s="44"/>
+    </row>
+    <row r="21" spans="1:18" ht="15.6">
+      <c r="A21" s="70"/>
+      <c r="B21" s="72"/>
       <c r="C21" s="4"/>
-      <c r="D21" s="88"/>
-      <c r="E21" s="88"/>
-      <c r="F21" s="4"/>
-      <c r="G21" s="4"/>
-      <c r="H21" s="4"/>
-      <c r="I21" s="4"/>
-      <c r="J21" s="2"/>
-      <c r="K21" s="2"/>
-      <c r="L21" s="60"/>
-      <c r="M21" s="61"/>
-      <c r="N21" s="62"/>
-    </row>
-    <row r="22" spans="1:14" ht="15.6">
-      <c r="A22" s="28"/>
-      <c r="B22" s="76"/>
+      <c r="D21" s="94"/>
+      <c r="E21" s="94"/>
+      <c r="F21" s="24"/>
+      <c r="G21" s="24"/>
+      <c r="H21" s="24"/>
+      <c r="I21" s="24"/>
+      <c r="J21" s="25"/>
+      <c r="K21" s="25"/>
+      <c r="L21" s="25"/>
+      <c r="M21" s="25"/>
+      <c r="N21" s="25"/>
+      <c r="O21" s="25"/>
+      <c r="P21" s="42"/>
+      <c r="Q21" s="43"/>
+      <c r="R21" s="44"/>
+    </row>
+    <row r="22" spans="1:18" ht="15.6">
+      <c r="A22" s="70"/>
+      <c r="B22" s="72"/>
       <c r="C22" s="4"/>
-      <c r="D22" s="89"/>
-      <c r="E22" s="89"/>
-      <c r="F22" s="4"/>
-      <c r="G22" s="4"/>
-      <c r="H22" s="4"/>
-      <c r="I22" s="4"/>
-      <c r="J22" s="2"/>
-      <c r="K22" s="2"/>
-      <c r="L22" s="60"/>
-      <c r="M22" s="61"/>
-      <c r="N22" s="62"/>
-    </row>
-    <row r="23" spans="1:14" ht="15.6">
-      <c r="A23" s="28"/>
-      <c r="B23" s="76"/>
+      <c r="D22" s="95"/>
+      <c r="E22" s="95"/>
+      <c r="F22" s="24"/>
+      <c r="G22" s="24"/>
+      <c r="H22" s="24"/>
+      <c r="I22" s="24"/>
+      <c r="J22" s="25"/>
+      <c r="K22" s="25"/>
+      <c r="L22" s="25"/>
+      <c r="M22" s="25"/>
+      <c r="N22" s="25"/>
+      <c r="O22" s="25"/>
+      <c r="P22" s="42"/>
+      <c r="Q22" s="43"/>
+      <c r="R22" s="44"/>
+    </row>
+    <row r="23" spans="1:18" ht="15.6">
+      <c r="A23" s="70"/>
+      <c r="B23" s="72"/>
       <c r="C23" s="4"/>
-      <c r="D23" s="85"/>
-      <c r="E23" s="86"/>
-      <c r="F23" s="4"/>
-      <c r="G23" s="4"/>
-      <c r="H23" s="4"/>
-      <c r="I23" s="4"/>
-      <c r="J23" s="4"/>
-      <c r="K23" s="4"/>
-      <c r="L23" s="60"/>
-      <c r="M23" s="61"/>
-      <c r="N23" s="62"/>
-    </row>
-    <row r="24" spans="1:14" ht="15.6">
-      <c r="A24" s="28"/>
-      <c r="B24" s="76"/>
+      <c r="D23" s="91"/>
+      <c r="E23" s="92"/>
+      <c r="F23" s="24"/>
+      <c r="G23" s="24"/>
+      <c r="H23" s="24"/>
+      <c r="I23" s="24"/>
+      <c r="J23" s="24"/>
+      <c r="K23" s="24"/>
+      <c r="L23" s="24"/>
+      <c r="M23" s="24"/>
+      <c r="N23" s="24"/>
+      <c r="O23" s="24"/>
+      <c r="P23" s="42"/>
+      <c r="Q23" s="43"/>
+      <c r="R23" s="44"/>
+    </row>
+    <row r="24" spans="1:18" ht="15.6">
+      <c r="A24" s="70"/>
+      <c r="B24" s="72"/>
       <c r="C24" s="4"/>
-      <c r="D24" s="85"/>
-      <c r="E24" s="86"/>
-      <c r="F24" s="4"/>
-      <c r="G24" s="4"/>
-      <c r="H24" s="4"/>
-      <c r="I24" s="4"/>
-      <c r="J24" s="4"/>
-      <c r="K24" s="4"/>
-      <c r="L24" s="60"/>
-      <c r="M24" s="61"/>
-      <c r="N24" s="62"/>
-    </row>
-    <row r="25" spans="1:14" ht="15.6">
-      <c r="A25" s="28"/>
-      <c r="B25" s="76"/>
+      <c r="D24" s="91"/>
+      <c r="E24" s="92"/>
+      <c r="F24" s="24"/>
+      <c r="G24" s="24"/>
+      <c r="H24" s="24"/>
+      <c r="I24" s="24"/>
+      <c r="J24" s="24"/>
+      <c r="K24" s="24"/>
+      <c r="L24" s="24"/>
+      <c r="M24" s="24"/>
+      <c r="N24" s="24"/>
+      <c r="O24" s="24"/>
+      <c r="P24" s="42"/>
+      <c r="Q24" s="43"/>
+      <c r="R24" s="44"/>
+    </row>
+    <row r="25" spans="1:18" ht="15.6">
+      <c r="A25" s="70"/>
+      <c r="B25" s="72"/>
       <c r="C25" s="4"/>
-      <c r="D25" s="80"/>
-      <c r="E25" s="81"/>
-      <c r="F25" s="4"/>
-      <c r="G25" s="4"/>
-      <c r="H25" s="4"/>
-      <c r="I25" s="4"/>
-      <c r="J25" s="4"/>
-      <c r="K25" s="4"/>
-      <c r="L25" s="60"/>
-      <c r="M25" s="61"/>
-      <c r="N25" s="62"/>
-    </row>
-    <row r="26" spans="1:14" ht="15.6">
-      <c r="A26" s="28"/>
-      <c r="B26" s="76"/>
+      <c r="D25" s="83"/>
+      <c r="E25" s="84"/>
+      <c r="F25" s="24"/>
+      <c r="G25" s="24"/>
+      <c r="H25" s="24"/>
+      <c r="I25" s="24"/>
+      <c r="J25" s="24"/>
+      <c r="K25" s="24"/>
+      <c r="L25" s="24"/>
+      <c r="M25" s="24"/>
+      <c r="N25" s="24"/>
+      <c r="O25" s="24"/>
+      <c r="P25" s="42"/>
+      <c r="Q25" s="43"/>
+      <c r="R25" s="44"/>
+    </row>
+    <row r="26" spans="1:18" ht="15.6">
+      <c r="A26" s="70"/>
+      <c r="B26" s="72"/>
       <c r="C26" s="5"/>
-      <c r="D26" s="80"/>
-      <c r="E26" s="81"/>
-      <c r="F26" s="4"/>
-      <c r="G26" s="4"/>
-      <c r="H26" s="4"/>
-      <c r="I26" s="4"/>
-      <c r="J26" s="4"/>
-      <c r="K26" s="4"/>
-      <c r="L26" s="60"/>
-      <c r="M26" s="61"/>
-      <c r="N26" s="62"/>
-    </row>
-    <row r="27" spans="1:14" ht="15.6">
-      <c r="A27" s="28"/>
-      <c r="B27" s="76"/>
+      <c r="D26" s="83"/>
+      <c r="E26" s="84"/>
+      <c r="F26" s="24"/>
+      <c r="G26" s="24"/>
+      <c r="H26" s="24"/>
+      <c r="I26" s="24"/>
+      <c r="J26" s="24"/>
+      <c r="K26" s="24"/>
+      <c r="L26" s="24"/>
+      <c r="M26" s="24"/>
+      <c r="N26" s="24"/>
+      <c r="O26" s="24"/>
+      <c r="P26" s="42"/>
+      <c r="Q26" s="43"/>
+      <c r="R26" s="44"/>
+    </row>
+    <row r="27" spans="1:18" ht="15.6">
+      <c r="A27" s="70"/>
+      <c r="B27" s="72"/>
       <c r="C27" s="5"/>
-      <c r="D27" s="80"/>
-      <c r="E27" s="81"/>
-      <c r="F27" s="4"/>
-      <c r="G27" s="4"/>
-      <c r="H27" s="4"/>
-      <c r="I27" s="4"/>
-      <c r="J27" s="4"/>
-      <c r="K27" s="4"/>
-      <c r="L27" s="60"/>
-      <c r="M27" s="61"/>
-      <c r="N27" s="62"/>
-    </row>
-    <row r="28" spans="1:14" ht="15.6">
-      <c r="A28" s="28"/>
-      <c r="B28" s="76"/>
+      <c r="D27" s="83"/>
+      <c r="E27" s="84"/>
+      <c r="F27" s="24"/>
+      <c r="G27" s="24"/>
+      <c r="H27" s="24"/>
+      <c r="I27" s="24"/>
+      <c r="J27" s="24"/>
+      <c r="K27" s="24"/>
+      <c r="L27" s="24"/>
+      <c r="M27" s="24"/>
+      <c r="N27" s="24"/>
+      <c r="O27" s="24"/>
+      <c r="P27" s="42"/>
+      <c r="Q27" s="43"/>
+      <c r="R27" s="44"/>
+    </row>
+    <row r="28" spans="1:18" ht="15.6">
+      <c r="A28" s="70"/>
+      <c r="B28" s="72"/>
       <c r="C28" s="5"/>
-      <c r="D28" s="80"/>
-      <c r="E28" s="81"/>
-      <c r="F28" s="4"/>
-      <c r="G28" s="4"/>
-      <c r="H28" s="4"/>
-      <c r="I28" s="4"/>
-      <c r="J28" s="4"/>
-      <c r="K28" s="4"/>
-      <c r="L28" s="63"/>
-      <c r="M28" s="64"/>
-      <c r="N28" s="65"/>
-    </row>
-    <row r="29" spans="1:14" ht="17.399999999999999">
-      <c r="A29" s="29" t="s">
+      <c r="D28" s="83"/>
+      <c r="E28" s="84"/>
+      <c r="F28" s="24"/>
+      <c r="G28" s="24"/>
+      <c r="H28" s="24"/>
+      <c r="I28" s="24"/>
+      <c r="J28" s="24"/>
+      <c r="K28" s="24"/>
+      <c r="L28" s="24"/>
+      <c r="M28" s="24"/>
+      <c r="N28" s="24"/>
+      <c r="O28" s="24"/>
+      <c r="P28" s="45"/>
+      <c r="Q28" s="46"/>
+      <c r="R28" s="47"/>
+    </row>
+    <row r="29" spans="1:18" ht="17.399999999999999">
+      <c r="A29" s="71" t="s">
         <v>49</v>
       </c>
       <c r="B29" s="6"/>
-      <c r="C29" s="31" t="s">
+      <c r="C29" s="58" t="s">
         <v>7</v>
       </c>
-      <c r="D29" s="31"/>
-      <c r="E29" s="82" t="s">
+      <c r="D29" s="58"/>
+      <c r="E29" s="85" t="s">
         <v>34</v>
       </c>
-      <c r="F29" s="83"/>
-      <c r="G29" s="83"/>
-      <c r="H29" s="83"/>
-      <c r="I29" s="84"/>
+      <c r="F29" s="86"/>
+      <c r="G29" s="86"/>
+      <c r="H29" s="86"/>
+      <c r="I29" s="87"/>
       <c r="J29" s="15" t="s">
         <v>35</v>
       </c>
       <c r="K29" s="15"/>
-      <c r="L29" s="16"/>
-      <c r="M29" s="16"/>
-      <c r="N29" s="16"/>
-    </row>
-    <row r="30" spans="1:14" ht="17.399999999999999">
-      <c r="A30" s="29"/>
+      <c r="L29" s="15"/>
+      <c r="M29" s="15"/>
+      <c r="N29" s="15"/>
+      <c r="O29" s="15"/>
+      <c r="P29" s="16"/>
+      <c r="Q29" s="16"/>
+      <c r="R29" s="16"/>
+    </row>
+    <row r="30" spans="1:18" ht="17.399999999999999">
+      <c r="A30" s="71"/>
       <c r="B30" s="7">
         <v>1</v>
       </c>
-      <c r="C30" s="35" t="s">
+      <c r="C30" s="82" t="s">
         <v>36</v>
       </c>
-      <c r="D30" s="35"/>
-      <c r="E30" s="42" t="s">
+      <c r="D30" s="82"/>
+      <c r="E30" s="88" t="s">
         <v>37</v>
       </c>
-      <c r="F30" s="43"/>
-      <c r="G30" s="43"/>
-      <c r="H30" s="43"/>
-      <c r="I30" s="44"/>
+      <c r="F30" s="89"/>
+      <c r="G30" s="89"/>
+      <c r="H30" s="89"/>
+      <c r="I30" s="90"/>
       <c r="J30" s="17" t="s">
         <v>38</v>
       </c>
       <c r="K30" s="17"/>
-      <c r="L30" s="16"/>
-      <c r="M30" s="16"/>
-      <c r="N30" s="16"/>
-    </row>
-    <row r="31" spans="1:14" ht="52.95" customHeight="1">
-      <c r="A31" s="29"/>
+      <c r="L30" s="17"/>
+      <c r="M30" s="17"/>
+      <c r="N30" s="17"/>
+      <c r="O30" s="17"/>
+      <c r="P30" s="16"/>
+      <c r="Q30" s="16"/>
+      <c r="R30" s="16"/>
+    </row>
+    <row r="31" spans="1:18" ht="52.95" customHeight="1">
+      <c r="A31" s="71"/>
       <c r="B31" s="7">
         <v>2</v>
       </c>
-      <c r="C31" s="22" t="s">
+      <c r="C31" s="78" t="s">
         <v>50</v>
       </c>
-      <c r="D31" s="22"/>
-      <c r="E31" s="77"/>
-      <c r="F31" s="78"/>
-      <c r="G31" s="78"/>
-      <c r="H31" s="78"/>
-      <c r="I31" s="79"/>
+      <c r="D31" s="78"/>
+      <c r="E31" s="79"/>
+      <c r="F31" s="80"/>
+      <c r="G31" s="80"/>
+      <c r="H31" s="80"/>
+      <c r="I31" s="81"/>
       <c r="J31" s="17" t="s">
         <v>39</v>
       </c>
       <c r="K31" s="17"/>
-      <c r="L31" s="3"/>
-      <c r="M31" s="3"/>
-      <c r="N31" s="3"/>
-    </row>
-    <row r="32" spans="1:14" ht="37.950000000000003" customHeight="1">
-      <c r="A32" s="29"/>
+      <c r="L31" s="17"/>
+      <c r="M31" s="17"/>
+      <c r="N31" s="17"/>
+      <c r="O31" s="17"/>
+      <c r="P31" s="3"/>
+      <c r="Q31" s="3"/>
+      <c r="R31" s="3"/>
+    </row>
+    <row r="32" spans="1:18" ht="37.950000000000003" customHeight="1">
+      <c r="A32" s="71"/>
       <c r="B32" s="7">
         <v>3</v>
       </c>
-      <c r="C32" s="35" t="s">
+      <c r="C32" s="82" t="s">
         <v>40</v>
       </c>
-      <c r="D32" s="35"/>
-      <c r="E32" s="23"/>
-      <c r="F32" s="24"/>
-      <c r="G32" s="24"/>
-      <c r="H32" s="24"/>
-      <c r="I32" s="25"/>
+      <c r="D32" s="82"/>
+      <c r="E32" s="62"/>
+      <c r="F32" s="63"/>
+      <c r="G32" s="63"/>
+      <c r="H32" s="63"/>
+      <c r="I32" s="64"/>
       <c r="J32" s="17" t="s">
         <v>41</v>
       </c>
       <c r="K32" s="17"/>
-      <c r="L32" s="3"/>
-      <c r="M32" s="3"/>
-      <c r="N32" s="3"/>
-    </row>
-    <row r="33" spans="1:247" ht="24" customHeight="1">
-      <c r="A33" s="29"/>
+      <c r="L32" s="17"/>
+      <c r="M32" s="17"/>
+      <c r="N32" s="17"/>
+      <c r="O32" s="17"/>
+      <c r="P32" s="3"/>
+      <c r="Q32" s="3"/>
+      <c r="R32" s="3"/>
+    </row>
+    <row r="33" spans="1:251" ht="24" customHeight="1">
+      <c r="A33" s="71"/>
       <c r="B33" s="7">
         <v>4</v>
       </c>
-      <c r="C33" s="22" t="s">
+      <c r="C33" s="78" t="s">
         <v>42</v>
       </c>
-      <c r="D33" s="22"/>
-      <c r="E33" s="23"/>
-      <c r="F33" s="24"/>
-      <c r="G33" s="24"/>
-      <c r="H33" s="24"/>
-      <c r="I33" s="25"/>
+      <c r="D33" s="78"/>
+      <c r="E33" s="62"/>
+      <c r="F33" s="63"/>
+      <c r="G33" s="63"/>
+      <c r="H33" s="63"/>
+      <c r="I33" s="64"/>
       <c r="J33" s="18" t="s">
         <v>43</v>
       </c>
       <c r="K33" s="18"/>
-      <c r="L33" s="3"/>
-      <c r="M33" s="3"/>
-      <c r="N33" s="3"/>
-    </row>
-    <row r="34" spans="1:247" ht="17.399999999999999">
-      <c r="A34" s="29"/>
+      <c r="L33" s="18"/>
+      <c r="M33" s="18"/>
+      <c r="N33" s="18"/>
+      <c r="O33" s="18"/>
+      <c r="P33" s="3"/>
+      <c r="Q33" s="3"/>
+      <c r="R33" s="3"/>
+    </row>
+    <row r="34" spans="1:251" ht="17.399999999999999">
+      <c r="A34" s="71"/>
       <c r="B34" s="8">
         <v>5</v>
       </c>
-      <c r="C34" s="36" t="s">
+      <c r="C34" s="60" t="s">
         <v>44</v>
       </c>
-      <c r="D34" s="37"/>
-      <c r="E34" s="23"/>
-      <c r="F34" s="24"/>
-      <c r="G34" s="24"/>
-      <c r="H34" s="24"/>
-      <c r="I34" s="25"/>
+      <c r="D34" s="61"/>
+      <c r="E34" s="62"/>
+      <c r="F34" s="63"/>
+      <c r="G34" s="63"/>
+      <c r="H34" s="63"/>
+      <c r="I34" s="64"/>
       <c r="J34" s="18"/>
       <c r="K34" s="18"/>
-      <c r="L34" s="3"/>
-      <c r="M34" s="3"/>
-      <c r="N34" s="3"/>
-    </row>
-    <row r="35" spans="1:247" ht="17.399999999999999">
-      <c r="A35" s="29"/>
+      <c r="L34" s="18"/>
+      <c r="M34" s="18"/>
+      <c r="N34" s="18"/>
+      <c r="O34" s="18"/>
+      <c r="P34" s="3"/>
+      <c r="Q34" s="3"/>
+      <c r="R34" s="3"/>
+    </row>
+    <row r="35" spans="1:251" ht="17.399999999999999">
+      <c r="A35" s="71"/>
       <c r="B35" s="7">
         <v>6</v>
       </c>
-      <c r="C35" s="38" t="s">
+      <c r="C35" s="65" t="s">
         <v>45</v>
       </c>
-      <c r="D35" s="39"/>
-      <c r="E35" s="23"/>
-      <c r="F35" s="24"/>
-      <c r="G35" s="24"/>
-      <c r="H35" s="24"/>
-      <c r="I35" s="25"/>
+      <c r="D35" s="66"/>
+      <c r="E35" s="62"/>
+      <c r="F35" s="63"/>
+      <c r="G35" s="63"/>
+      <c r="H35" s="63"/>
+      <c r="I35" s="64"/>
       <c r="J35" s="18"/>
       <c r="K35" s="18"/>
-      <c r="L35" s="3"/>
-      <c r="M35" s="3"/>
-      <c r="N35" s="3"/>
-    </row>
-    <row r="36" spans="1:247" ht="27" customHeight="1">
-      <c r="A36" s="29"/>
+      <c r="L35" s="18"/>
+      <c r="M35" s="18"/>
+      <c r="N35" s="18"/>
+      <c r="O35" s="18"/>
+      <c r="P35" s="3"/>
+      <c r="Q35" s="3"/>
+      <c r="R35" s="3"/>
+    </row>
+    <row r="36" spans="1:251" ht="27" customHeight="1">
+      <c r="A36" s="71"/>
       <c r="B36" s="7">
         <v>7</v>
       </c>
-      <c r="C36" s="22" t="s">
+      <c r="C36" s="78" t="s">
         <v>46</v>
       </c>
-      <c r="D36" s="22"/>
-      <c r="E36" s="23"/>
-      <c r="F36" s="24"/>
-      <c r="G36" s="24"/>
-      <c r="H36" s="24"/>
-      <c r="I36" s="25"/>
+      <c r="D36" s="78"/>
+      <c r="E36" s="62"/>
+      <c r="F36" s="63"/>
+      <c r="G36" s="63"/>
+      <c r="H36" s="63"/>
+      <c r="I36" s="64"/>
       <c r="J36" s="18"/>
       <c r="K36" s="18"/>
-      <c r="L36" s="3"/>
-      <c r="M36" s="3"/>
-      <c r="N36" s="3"/>
-    </row>
-    <row r="37" spans="1:247" ht="16.2">
-      <c r="A37" s="26" t="s">
+      <c r="L36" s="18"/>
+      <c r="M36" s="18"/>
+      <c r="N36" s="18"/>
+      <c r="O36" s="18"/>
+      <c r="P36" s="3"/>
+      <c r="Q36" s="3"/>
+      <c r="R36" s="3"/>
+    </row>
+    <row r="37" spans="1:251" ht="16.2">
+      <c r="A37" s="73" t="s">
         <v>47</v>
       </c>
-      <c r="B37" s="27"/>
-      <c r="C37" s="27"/>
-      <c r="D37" s="27"/>
-      <c r="E37" s="27"/>
-      <c r="F37" s="27"/>
-      <c r="G37" s="27"/>
-      <c r="H37" s="27"/>
-      <c r="I37" s="27"/>
-      <c r="J37" s="27"/>
-      <c r="K37" s="27"/>
-      <c r="L37" s="27"/>
-      <c r="M37" s="27"/>
-      <c r="N37" s="27"/>
-      <c r="O37" s="19"/>
-      <c r="P37" s="19"/>
-      <c r="Q37" s="19"/>
-      <c r="R37" s="19"/>
+      <c r="B37" s="74"/>
+      <c r="C37" s="74"/>
+      <c r="D37" s="74"/>
+      <c r="E37" s="74"/>
+      <c r="F37" s="74"/>
+      <c r="G37" s="74"/>
+      <c r="H37" s="74"/>
+      <c r="I37" s="74"/>
+      <c r="J37" s="74"/>
+      <c r="K37" s="74"/>
+      <c r="L37" s="74"/>
+      <c r="M37" s="74"/>
+      <c r="N37" s="74"/>
+      <c r="O37" s="74"/>
+      <c r="P37" s="74"/>
+      <c r="Q37" s="74"/>
+      <c r="R37" s="74"/>
       <c r="S37" s="19"/>
       <c r="T37" s="19"/>
       <c r="U37" s="19"/>
@@ -2130,28 +2319,32 @@
       <c r="IK37" s="19"/>
       <c r="IL37" s="19"/>
       <c r="IM37" s="19"/>
-    </row>
-    <row r="38" spans="1:247" ht="15.6">
-      <c r="A38" s="66" t="s">
+      <c r="IN37" s="19"/>
+      <c r="IO37" s="19"/>
+      <c r="IP37" s="19"/>
+      <c r="IQ37" s="19"/>
+    </row>
+    <row r="38" spans="1:251" ht="15.6">
+      <c r="A38" s="48" t="s">
         <v>51</v>
       </c>
-      <c r="B38" s="66"/>
-      <c r="C38" s="66"/>
-      <c r="D38" s="66"/>
-      <c r="E38" s="66"/>
-      <c r="F38" s="66"/>
-      <c r="G38" s="66"/>
-      <c r="H38" s="66"/>
-      <c r="I38" s="66"/>
-      <c r="J38" s="66"/>
-      <c r="K38" s="66"/>
-      <c r="L38" s="66"/>
-      <c r="M38" s="66"/>
-      <c r="N38" s="66"/>
-      <c r="O38" s="19"/>
-      <c r="P38" s="19"/>
-      <c r="Q38" s="19"/>
-      <c r="R38" s="19"/>
+      <c r="B38" s="48"/>
+      <c r="C38" s="48"/>
+      <c r="D38" s="48"/>
+      <c r="E38" s="48"/>
+      <c r="F38" s="48"/>
+      <c r="G38" s="48"/>
+      <c r="H38" s="48"/>
+      <c r="I38" s="48"/>
+      <c r="J38" s="48"/>
+      <c r="K38" s="48"/>
+      <c r="L38" s="48"/>
+      <c r="M38" s="48"/>
+      <c r="N38" s="48"/>
+      <c r="O38" s="48"/>
+      <c r="P38" s="48"/>
+      <c r="Q38" s="48"/>
+      <c r="R38" s="48"/>
       <c r="S38" s="19"/>
       <c r="T38" s="19"/>
       <c r="U38" s="19"/>
@@ -2381,26 +2574,30 @@
       <c r="IK38" s="19"/>
       <c r="IL38" s="19"/>
       <c r="IM38" s="19"/>
-    </row>
-    <row r="39" spans="1:247" ht="15.6">
-      <c r="A39" s="66"/>
-      <c r="B39" s="66"/>
-      <c r="C39" s="66"/>
-      <c r="D39" s="66"/>
-      <c r="E39" s="66"/>
-      <c r="F39" s="66"/>
-      <c r="G39" s="66"/>
-      <c r="H39" s="66"/>
-      <c r="I39" s="66"/>
-      <c r="J39" s="66"/>
-      <c r="K39" s="66"/>
-      <c r="L39" s="66"/>
-      <c r="M39" s="66"/>
-      <c r="N39" s="66"/>
-      <c r="O39" s="19"/>
-      <c r="P39" s="19"/>
-      <c r="Q39" s="19"/>
-      <c r="R39" s="19"/>
+      <c r="IN38" s="19"/>
+      <c r="IO38" s="19"/>
+      <c r="IP38" s="19"/>
+      <c r="IQ38" s="19"/>
+    </row>
+    <row r="39" spans="1:251" ht="15.6">
+      <c r="A39" s="48"/>
+      <c r="B39" s="48"/>
+      <c r="C39" s="48"/>
+      <c r="D39" s="48"/>
+      <c r="E39" s="48"/>
+      <c r="F39" s="48"/>
+      <c r="G39" s="48"/>
+      <c r="H39" s="48"/>
+      <c r="I39" s="48"/>
+      <c r="J39" s="48"/>
+      <c r="K39" s="48"/>
+      <c r="L39" s="48"/>
+      <c r="M39" s="48"/>
+      <c r="N39" s="48"/>
+      <c r="O39" s="48"/>
+      <c r="P39" s="48"/>
+      <c r="Q39" s="48"/>
+      <c r="R39" s="48"/>
       <c r="S39" s="19"/>
       <c r="T39" s="19"/>
       <c r="U39" s="19"/>
@@ -2630,26 +2827,30 @@
       <c r="IK39" s="19"/>
       <c r="IL39" s="19"/>
       <c r="IM39" s="19"/>
-    </row>
-    <row r="40" spans="1:247" ht="15.6">
-      <c r="A40" s="66"/>
-      <c r="B40" s="66"/>
-      <c r="C40" s="66"/>
-      <c r="D40" s="66"/>
-      <c r="E40" s="66"/>
-      <c r="F40" s="66"/>
-      <c r="G40" s="66"/>
-      <c r="H40" s="66"/>
-      <c r="I40" s="66"/>
-      <c r="J40" s="66"/>
-      <c r="K40" s="66"/>
-      <c r="L40" s="66"/>
-      <c r="M40" s="66"/>
-      <c r="N40" s="66"/>
-      <c r="O40" s="19"/>
-      <c r="P40" s="19"/>
-      <c r="Q40" s="19"/>
-      <c r="R40" s="19"/>
+      <c r="IN39" s="19"/>
+      <c r="IO39" s="19"/>
+      <c r="IP39" s="19"/>
+      <c r="IQ39" s="19"/>
+    </row>
+    <row r="40" spans="1:251" ht="15.6">
+      <c r="A40" s="48"/>
+      <c r="B40" s="48"/>
+      <c r="C40" s="48"/>
+      <c r="D40" s="48"/>
+      <c r="E40" s="48"/>
+      <c r="F40" s="48"/>
+      <c r="G40" s="48"/>
+      <c r="H40" s="48"/>
+      <c r="I40" s="48"/>
+      <c r="J40" s="48"/>
+      <c r="K40" s="48"/>
+      <c r="L40" s="48"/>
+      <c r="M40" s="48"/>
+      <c r="N40" s="48"/>
+      <c r="O40" s="48"/>
+      <c r="P40" s="48"/>
+      <c r="Q40" s="48"/>
+      <c r="R40" s="48"/>
       <c r="S40" s="19"/>
       <c r="T40" s="19"/>
       <c r="U40" s="19"/>
@@ -2879,26 +3080,30 @@
       <c r="IK40" s="19"/>
       <c r="IL40" s="19"/>
       <c r="IM40" s="19"/>
-    </row>
-    <row r="41" spans="1:247" ht="21" customHeight="1">
-      <c r="A41" s="66"/>
-      <c r="B41" s="66"/>
-      <c r="C41" s="66"/>
-      <c r="D41" s="66"/>
-      <c r="E41" s="66"/>
-      <c r="F41" s="66"/>
-      <c r="G41" s="66"/>
-      <c r="H41" s="66"/>
-      <c r="I41" s="66"/>
-      <c r="J41" s="66"/>
-      <c r="K41" s="66"/>
-      <c r="L41" s="66"/>
-      <c r="M41" s="66"/>
-      <c r="N41" s="66"/>
-      <c r="O41" s="19"/>
-      <c r="P41" s="19"/>
-      <c r="Q41" s="19"/>
-      <c r="R41" s="19"/>
+      <c r="IN40" s="19"/>
+      <c r="IO40" s="19"/>
+      <c r="IP40" s="19"/>
+      <c r="IQ40" s="19"/>
+    </row>
+    <row r="41" spans="1:251" ht="21" customHeight="1">
+      <c r="A41" s="48"/>
+      <c r="B41" s="48"/>
+      <c r="C41" s="48"/>
+      <c r="D41" s="48"/>
+      <c r="E41" s="48"/>
+      <c r="F41" s="48"/>
+      <c r="G41" s="48"/>
+      <c r="H41" s="48"/>
+      <c r="I41" s="48"/>
+      <c r="J41" s="48"/>
+      <c r="K41" s="48"/>
+      <c r="L41" s="48"/>
+      <c r="M41" s="48"/>
+      <c r="N41" s="48"/>
+      <c r="O41" s="48"/>
+      <c r="P41" s="48"/>
+      <c r="Q41" s="48"/>
+      <c r="R41" s="48"/>
       <c r="S41" s="19"/>
       <c r="T41" s="19"/>
       <c r="U41" s="19"/>
@@ -3128,88 +3333,104 @@
       <c r="IK41" s="19"/>
       <c r="IL41" s="19"/>
       <c r="IM41" s="19"/>
-    </row>
-    <row r="42" spans="1:247" ht="25.05" customHeight="1">
-      <c r="A42" s="66"/>
-      <c r="B42" s="66"/>
-      <c r="C42" s="66"/>
-      <c r="D42" s="66"/>
-      <c r="E42" s="66"/>
-      <c r="F42" s="66"/>
-      <c r="G42" s="66"/>
-      <c r="H42" s="66"/>
-      <c r="I42" s="66"/>
-      <c r="J42" s="66"/>
-      <c r="K42" s="66"/>
-      <c r="L42" s="66"/>
-      <c r="M42" s="66"/>
-      <c r="N42" s="66"/>
-    </row>
-    <row r="43" spans="1:247" ht="15.6">
-      <c r="A43" s="30" t="s">
+      <c r="IN41" s="19"/>
+      <c r="IO41" s="19"/>
+      <c r="IP41" s="19"/>
+      <c r="IQ41" s="19"/>
+    </row>
+    <row r="42" spans="1:251" ht="25.05" customHeight="1">
+      <c r="A42" s="48"/>
+      <c r="B42" s="48"/>
+      <c r="C42" s="48"/>
+      <c r="D42" s="48"/>
+      <c r="E42" s="48"/>
+      <c r="F42" s="48"/>
+      <c r="G42" s="48"/>
+      <c r="H42" s="48"/>
+      <c r="I42" s="48"/>
+      <c r="J42" s="48"/>
+      <c r="K42" s="48"/>
+      <c r="L42" s="48"/>
+      <c r="M42" s="48"/>
+      <c r="N42" s="48"/>
+      <c r="O42" s="48"/>
+      <c r="P42" s="48"/>
+      <c r="Q42" s="48"/>
+      <c r="R42" s="48"/>
+    </row>
+    <row r="43" spans="1:251" ht="17.399999999999999">
+      <c r="A43" s="75" t="s">
         <v>17</v>
       </c>
-      <c r="B43" s="45"/>
-      <c r="C43" s="30" t="s">
+      <c r="B43" s="76"/>
+      <c r="C43" s="75" t="s">
         <v>18</v>
       </c>
-      <c r="D43" s="31" t="s">
+      <c r="D43" s="58" t="s">
         <v>52</v>
       </c>
-      <c r="E43" s="32" t="s">
+      <c r="E43" s="59" t="s">
         <v>11</v>
       </c>
-      <c r="F43" s="32" t="s">
+      <c r="F43" s="59" t="s">
         <v>12</v>
       </c>
-      <c r="G43" s="32" t="s">
+      <c r="G43" s="59" t="s">
         <v>13</v>
       </c>
-      <c r="H43" s="32" t="s">
+      <c r="H43" s="59" t="s">
         <v>14</v>
       </c>
-      <c r="I43" s="31" t="s">
+      <c r="I43" s="58" t="s">
         <v>53</v>
       </c>
-      <c r="J43" s="31" t="s">
+      <c r="J43" s="58" t="s">
         <v>16</v>
       </c>
-      <c r="K43" s="31" t="s">
+      <c r="K43" s="58" t="s">
         <v>54</v>
       </c>
-      <c r="L43" s="31" t="s">
+      <c r="L43" s="58" t="s">
         <v>55</v>
       </c>
-      <c r="M43" s="31" t="s">
+      <c r="M43" s="58" t="s">
         <v>56</v>
       </c>
-      <c r="N43" s="33" t="s">
+      <c r="N43" s="29" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="44" spans="1:247" ht="15.6">
-      <c r="A44" s="46" t="s">
+      <c r="O43" s="26"/>
+      <c r="P43" s="14"/>
+      <c r="Q43" s="14"/>
+      <c r="R43" s="14"/>
+    </row>
+    <row r="44" spans="1:251" ht="17.399999999999999">
+      <c r="A44" s="77" t="s">
         <v>20</v>
       </c>
-      <c r="B44" s="46"/>
-      <c r="C44" s="30"/>
-      <c r="D44" s="31"/>
-      <c r="E44" s="32"/>
-      <c r="F44" s="32"/>
-      <c r="G44" s="32"/>
-      <c r="H44" s="32"/>
-      <c r="I44" s="32"/>
-      <c r="J44" s="32"/>
-      <c r="K44" s="32"/>
-      <c r="L44" s="32"/>
-      <c r="M44" s="32"/>
-      <c r="N44" s="34"/>
-    </row>
-    <row r="45" spans="1:247" ht="17.399999999999999">
-      <c r="A45" s="40" t="s">
+      <c r="B44" s="77"/>
+      <c r="C44" s="75"/>
+      <c r="D44" s="58"/>
+      <c r="E44" s="59"/>
+      <c r="F44" s="59"/>
+      <c r="G44" s="59"/>
+      <c r="H44" s="59"/>
+      <c r="I44" s="59"/>
+      <c r="J44" s="59"/>
+      <c r="K44" s="59"/>
+      <c r="L44" s="59"/>
+      <c r="M44" s="59"/>
+      <c r="N44" s="30"/>
+      <c r="O44" s="27"/>
+      <c r="P44" s="14"/>
+      <c r="Q44" s="14"/>
+      <c r="R44" s="14"/>
+    </row>
+    <row r="45" spans="1:251" ht="17.399999999999999">
+      <c r="A45" s="67" t="s">
         <v>21</v>
       </c>
-      <c r="B45" s="40"/>
+      <c r="B45" s="67"/>
       <c r="C45" s="9" t="s">
         <v>22</v>
       </c>
@@ -3226,12 +3447,16 @@
       <c r="N45" s="20" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="46" spans="1:247" ht="17.399999999999999">
-      <c r="A46" s="21" t="s">
+      <c r="O45" s="14"/>
+      <c r="P45" s="14"/>
+      <c r="Q45" s="14"/>
+      <c r="R45" s="14"/>
+    </row>
+    <row r="46" spans="1:251" ht="17.399999999999999">
+      <c r="A46" s="69" t="s">
         <v>24</v>
       </c>
-      <c r="B46" s="21"/>
+      <c r="B46" s="69"/>
       <c r="C46" s="9" t="s">
         <v>25</v>
       </c>
@@ -3248,12 +3473,16 @@
       <c r="N46" s="20" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="47" spans="1:247" ht="17.399999999999999">
-      <c r="A47" s="40" t="s">
+      <c r="O46" s="14"/>
+      <c r="P46" s="14"/>
+      <c r="Q46" s="14"/>
+      <c r="R46" s="14"/>
+    </row>
+    <row r="47" spans="1:251" ht="17.399999999999999">
+      <c r="A47" s="67" t="s">
         <v>26</v>
       </c>
-      <c r="B47" s="40"/>
+      <c r="B47" s="67"/>
       <c r="C47" s="9" t="s">
         <v>27</v>
       </c>
@@ -3270,12 +3499,16 @@
       <c r="N47" s="20" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="48" spans="1:247" ht="17.399999999999999">
-      <c r="A48" s="41" t="s">
+      <c r="O47" s="14"/>
+      <c r="P47" s="14"/>
+      <c r="Q47" s="14"/>
+      <c r="R47" s="14"/>
+    </row>
+    <row r="48" spans="1:251" ht="17.399999999999999">
+      <c r="A48" s="68" t="s">
         <v>28</v>
       </c>
-      <c r="B48" s="41"/>
+      <c r="B48" s="68"/>
       <c r="C48" s="13" t="s">
         <v>29</v>
       </c>
@@ -3292,10 +3525,14 @@
       <c r="N48" s="20" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="49" spans="1:14" ht="17.399999999999999">
-      <c r="A49" s="21"/>
-      <c r="B49" s="21"/>
+      <c r="O48" s="14"/>
+      <c r="P48" s="14"/>
+      <c r="Q48" s="14"/>
+      <c r="R48" s="14"/>
+    </row>
+    <row r="49" spans="1:18" ht="17.399999999999999">
+      <c r="A49" s="69"/>
+      <c r="B49" s="69"/>
       <c r="C49" s="13" t="s">
         <v>31</v>
       </c>
@@ -3312,12 +3549,16 @@
       <c r="N49" s="20" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="50" spans="1:14" ht="17.399999999999999">
-      <c r="A50" s="21" t="s">
+      <c r="O49" s="14"/>
+      <c r="P49" s="14"/>
+      <c r="Q49" s="14"/>
+      <c r="R49" s="14"/>
+    </row>
+    <row r="50" spans="1:18" ht="17.399999999999999">
+      <c r="A50" s="69" t="s">
         <v>32</v>
       </c>
-      <c r="B50" s="21"/>
+      <c r="B50" s="69"/>
       <c r="C50" s="11" t="s">
         <v>33</v>
       </c>
@@ -3334,8 +3575,12 @@
       <c r="N50" s="20" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="51" spans="1:14" ht="17.399999999999999">
+      <c r="O50" s="14"/>
+      <c r="P50" s="14"/>
+      <c r="Q50" s="14"/>
+      <c r="R50" s="14"/>
+    </row>
+    <row r="51" spans="1:18" ht="17.399999999999999">
       <c r="A51" s="14"/>
       <c r="B51" s="14"/>
       <c r="C51" s="11" t="s">
@@ -3354,8 +3599,12 @@
       <c r="N51" s="20" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="52" spans="1:14" ht="17.399999999999999">
+      <c r="O51" s="14"/>
+      <c r="P51" s="14"/>
+      <c r="Q51" s="14"/>
+      <c r="R51" s="14"/>
+    </row>
+    <row r="52" spans="1:18" ht="17.399999999999999">
       <c r="A52" s="14"/>
       <c r="B52" s="14"/>
       <c r="C52" s="11" t="s">
@@ -3374,8 +3623,12 @@
       <c r="N52" s="20" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="53" spans="1:14" ht="17.399999999999999">
+      <c r="O52" s="14"/>
+      <c r="P52" s="14"/>
+      <c r="Q52" s="14"/>
+      <c r="R52" s="14"/>
+    </row>
+    <row r="53" spans="1:18" ht="17.399999999999999">
       <c r="A53" s="14"/>
       <c r="B53" s="14"/>
       <c r="C53" s="11" t="s">
@@ -3394,8 +3647,12 @@
       <c r="N53" s="20" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="54" spans="1:14" ht="17.399999999999999">
+      <c r="O53" s="14"/>
+      <c r="P53" s="14"/>
+      <c r="Q53" s="14"/>
+      <c r="R53" s="14"/>
+    </row>
+    <row r="54" spans="1:18" ht="17.399999999999999">
       <c r="A54" s="14"/>
       <c r="B54" s="14"/>
       <c r="C54" s="11" t="s">
@@ -3414,8 +3671,12 @@
       <c r="N54" s="20" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="55" spans="1:14" ht="17.399999999999999">
+      <c r="O54" s="14"/>
+      <c r="P54" s="14"/>
+      <c r="Q54" s="14"/>
+      <c r="R54" s="14"/>
+    </row>
+    <row r="55" spans="1:18" ht="17.399999999999999">
       <c r="A55" s="14"/>
       <c r="B55" s="14"/>
       <c r="C55" s="11" t="s">
@@ -3434,6 +3695,10 @@
       <c r="N55" s="20" t="s">
         <v>30</v>
       </c>
+      <c r="O55" s="14"/>
+      <c r="P55" s="14"/>
+      <c r="Q55" s="14"/>
+      <c r="R55" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="79">
@@ -3446,7 +3711,7 @@
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="D5:F5"/>
     <mergeCell ref="G5:H5"/>
-    <mergeCell ref="A6:N6"/>
+    <mergeCell ref="A6:R6"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:E7"/>
     <mergeCell ref="F7:K7"/>
@@ -3491,7 +3756,7 @@
     <mergeCell ref="A7:A28"/>
     <mergeCell ref="A29:A36"/>
     <mergeCell ref="B9:B28"/>
-    <mergeCell ref="A37:N37"/>
+    <mergeCell ref="A37:R37"/>
     <mergeCell ref="A43:B43"/>
     <mergeCell ref="A44:B44"/>
     <mergeCell ref="A45:B45"/>
@@ -3501,11 +3766,11 @@
     <mergeCell ref="E43:E44"/>
     <mergeCell ref="F43:F44"/>
     <mergeCell ref="N43:N44"/>
-    <mergeCell ref="A1:N2"/>
-    <mergeCell ref="L7:N28"/>
-    <mergeCell ref="A38:N42"/>
+    <mergeCell ref="A1:R2"/>
+    <mergeCell ref="P7:R28"/>
+    <mergeCell ref="A38:R42"/>
     <mergeCell ref="I3:K5"/>
-    <mergeCell ref="L3:N5"/>
+    <mergeCell ref="P3:R5"/>
     <mergeCell ref="G43:G44"/>
     <mergeCell ref="H43:H44"/>
     <mergeCell ref="I43:I44"/>
